--- a/documents/디자인/데이터 디자인.xlsx
+++ b/documents/디자인/데이터 디자인.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GameApp_2020\documents\디자인\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E27A076-558C-4CCD-B985-2F0C0FD77DDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BB0409-5789-4F0C-95ED-45455E6D4A62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38385" yWindow="780" windowWidth="15150" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -307,7 +307,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,15 +325,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -341,21 +332,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF7030A0"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -370,11 +365,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -658,12 +652,12 @@
   <dimension ref="B2:U29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:21">
       <c r="C2" t="s">
         <v>1</v>
       </c>
@@ -689,7 +683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:21">
       <c r="B3" t="s">
         <v>54</v>
       </c>
@@ -697,8 +691,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="C4" s="2" t="s">
+    <row r="4" spans="2:21">
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
@@ -723,7 +717,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:21">
       <c r="D5" t="s">
         <v>6</v>
       </c>
@@ -733,7 +727,7 @@
       <c r="H5" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="P5" s="2" t="s">
         <v>58</v>
       </c>
       <c r="Q5" t="s">
@@ -746,7 +740,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:21">
       <c r="D6" t="s">
         <v>9</v>
       </c>
@@ -756,7 +750,7 @@
       <c r="H6" t="s">
         <v>10</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="P6" s="1" t="s">
         <v>58</v>
       </c>
       <c r="Q6" t="s">
@@ -769,7 +763,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:21">
       <c r="D7" t="s">
         <v>33</v>
       </c>
@@ -789,7 +783,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:21">
       <c r="D8" t="s">
         <v>13</v>
       </c>
@@ -806,7 +800,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:21">
       <c r="D9" t="s">
         <v>21</v>
       </c>
@@ -820,7 +814,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:21">
       <c r="D10" t="s">
         <v>23</v>
       </c>
@@ -843,7 +837,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:21">
       <c r="D11" t="s">
         <v>25</v>
       </c>
@@ -853,7 +847,7 @@
       <c r="H11" t="s">
         <v>26</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="P11" s="1" t="s">
         <v>58</v>
       </c>
       <c r="Q11" t="s">
@@ -866,7 +860,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:21">
       <c r="D12" t="s">
         <v>38</v>
       </c>
@@ -876,7 +870,7 @@
       <c r="H12" t="s">
         <v>39</v>
       </c>
-      <c r="P12" s="2" t="s">
+      <c r="P12" s="1" t="s">
         <v>58</v>
       </c>
       <c r="Q12" t="s">
@@ -889,7 +883,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:21">
       <c r="Q13" t="s">
         <v>67</v>
       </c>
@@ -900,12 +894,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:21">
       <c r="B14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:21">
       <c r="C15" t="s">
         <v>5</v>
       </c>
@@ -919,7 +913,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:21">
       <c r="D16" t="s">
         <v>6</v>
       </c>
@@ -930,7 +924,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11">
       <c r="D17" t="s">
         <v>29</v>
       </c>
@@ -941,7 +935,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11">
       <c r="D18" t="s">
         <v>31</v>
       </c>
@@ -952,7 +946,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11">
       <c r="D19" t="s">
         <v>33</v>
       </c>
@@ -969,7 +963,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11">
       <c r="D20" t="s">
         <v>23</v>
       </c>
@@ -980,13 +974,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11">
       <c r="B22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C23" s="3" t="s">
+    <row r="23" spans="2:11">
+      <c r="C23" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D23" t="s">
@@ -999,7 +993,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11">
       <c r="D24" t="s">
         <v>41</v>
       </c>
@@ -1010,7 +1004,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:11">
       <c r="D25" t="s">
         <v>43</v>
       </c>
@@ -1021,7 +1015,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11">
       <c r="D26" t="s">
         <v>45</v>
       </c>
@@ -1032,7 +1026,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:11">
       <c r="D27" t="s">
         <v>47</v>
       </c>
@@ -1043,7 +1037,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:11">
       <c r="D28" t="s">
         <v>49</v>
       </c>
@@ -1057,7 +1051,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:11">
       <c r="D29" t="s">
         <v>50</v>
       </c>
